--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_180__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_180__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,73 +5987,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.121412754058838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.313149452209473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.09828186035156</c:v>
+                  <c:v>84.09825897216797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.173169612884521</c:v>
+                  <c:v>7.173163414001465</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.14371395111084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.129895687103271</c:v>
+                  <c:v>6.12990140914917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.133615016937256</c:v>
+                  <c:v>6.133621215820312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.099025249481201</c:v>
+                  <c:v>6.099031448364258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.130681991577148</c:v>
+                  <c:v>6.130687713623047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>26.53690338134766</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.080593585968018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>6.147026538848877</c:v>
@@ -6062,85 +6062,85 @@
                   <c:v>6.538227081298828</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.69131469726562</c:v>
+                  <c:v>68.69132232666016</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>84.27840423583984</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.133756160736084</c:v>
+                  <c:v>6.133749961853027</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.133615016937256</c:v>
+                  <c:v>6.133621215820312</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.13371467590332</c:v>
+                  <c:v>6.133720874786377</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.138760089874268</c:v>
+                  <c:v>6.138766288757324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.525796890258789</c:v>
+                  <c:v>7.525808334350586</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.132553100585938</c:v>
+                  <c:v>6.132547378540039</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67.77517700195312</c:v>
+                  <c:v>67.77518463134766</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.178847312927246</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.89931106567383</c:v>
+                  <c:v>17.89931297302246</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>7.080470561981201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>68.09259796142578</c:v>
+                  <c:v>68.09261322021484</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.133615016937256</c:v>
+                  <c:v>6.133621215820312</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.140883922576904</c:v>
+                  <c:v>6.140889644622803</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>6.705849170684814</c:v>
@@ -6149,25 +6149,25 @@
                   <c:v>7.738656520843506</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>19.30827331542969</c:v>
+                  <c:v>19.30828857421875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.133621215820312</c:v>
+                  <c:v>6.133615016937256</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>6.134348392486572</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6.133603572845459</c:v>
@@ -6176,115 +6176,115 @@
                   <c:v>85.52790832519531</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>7.080270767211914</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.133615016937256</c:v>
+                  <c:v>6.133621215820312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.143629550933838</c:v>
+                  <c:v>6.143623828887939</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6.385687828063965</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>8.30945873260498</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.93451976776123</c:v>
+                  <c:v>6.934531211853027</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.134043216705322</c:v>
+                  <c:v>6.134037494659424</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>74.09830474853516</c:v>
+                  <c:v>74.09832000732422</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.306260585784912</c:v>
+                  <c:v>7.306254863739014</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.133591651916504</c:v>
+                  <c:v>6.133603572845459</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.139607429504395</c:v>
+                  <c:v>8.139601707458496</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.098309516906738</c:v>
+                  <c:v>6.09830379486084</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.132729530334473</c:v>
+                  <c:v>6.132735252380371</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.207951545715332</c:v>
+                  <c:v>6.207945823669434</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>89.33577728271484</c:v>
+                  <c:v>89.33576965332031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>84.09828186035156</v>
+        <v>84.09825897216797</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.173169612884521</v>
+        <v>7.173163414001465</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.129895687103271</v>
+        <v>6.12990140914917</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.133615016937256</v>
+        <v>6.133621215820312</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.099025249481201</v>
+        <v>6.099031448364258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>6.130681991577148</v>
+        <v>6.130687713623047</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>68.69131469726562</v>
+        <v>68.69132232666016</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>6.133756160736084</v>
+        <v>6.133749961853027</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>6.133615016937256</v>
+        <v>6.133621215820312</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>6.13371467590332</v>
+        <v>6.133720874786377</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>6.138760089874268</v>
+        <v>6.138766288757324</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7.525796890258789</v>
+        <v>7.525808334350586</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>6.132553100585938</v>
+        <v>6.132547378540039</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>67.77517700195312</v>
+        <v>67.77518463134766</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>17.89931106567383</v>
+        <v>17.89931297302246</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>68.09259796142578</v>
+        <v>68.09261322021484</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>6.133615016937256</v>
+        <v>6.133621215820312</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>6.140883922576904</v>
+        <v>6.140889644622803</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>19.30827331542969</v>
+        <v>19.30828857421875</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>6.133621215820312</v>
+        <v>6.133615016937256</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>6.133615016937256</v>
+        <v>6.133621215820312</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>6.143629550933838</v>
+        <v>6.143623828887939</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>6.93451976776123</v>
+        <v>6.934531211853027</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>6.134043216705322</v>
+        <v>6.134037494659424</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>74.09830474853516</v>
+        <v>74.09832000732422</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7.306260585784912</v>
+        <v>7.306254863739014</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>6.133591651916504</v>
+        <v>6.133603572845459</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>8.139607429504395</v>
+        <v>8.139601707458496</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>6.098309516906738</v>
+        <v>6.09830379486084</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>6.132729530334473</v>
+        <v>6.132735252380371</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>6.207951545715332</v>
+        <v>6.207945823669434</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>89.33577728271484</v>
+        <v>89.33576965332031</v>
       </c>
     </row>
     <row r="102" spans="1:6">
